--- a/files/extraction_summary.xlsx
+++ b/files/extraction_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,138 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:24:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/extraction_summary.xlsx
+++ b/files/extraction_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,490 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-08-20 18:06:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:30:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:33:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:34:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:35:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:39:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:41:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10789</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-08-20 22:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-08-20 23:12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-08-20 23:13:13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/extraction_summary.xlsx
+++ b/files/extraction_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,6 +1133,94 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-08-20 23:15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-08-20 23:15:38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/extraction_summary.xlsx
+++ b/files/extraction_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,6 +1221,50 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-08-28 14:24:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
